--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yudinugraha/Projects/Tutorial/ExcelTutorialBasic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E16097E-A847-EE44-B6A0-BE0DDA2AE787}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255DC848-833A-A84F-BC93-570ECF40117A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{431D5197-0FDA-D648-BF81-0232A59451C6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{431D5197-0FDA-D648-BF81-0232A59451C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Auto Sum" sheetId="2" r:id="rId1"/>
     <sheet name="Fungsi dan Rumus Logika" sheetId="1" r:id="rId2"/>
+    <sheet name="Vlookup Hlookup" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>A</t>
   </si>
@@ -110,13 +111,167 @@
   </si>
   <si>
     <t>fungsi untuk membaca tabel secara horizontal</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Rihan</t>
+  </si>
+  <si>
+    <t>Ray</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Syntax </t>
+  </si>
+  <si>
+    <t>=VLOOKUP (value, table, col_index, [range_lookup])</t>
+  </si>
+  <si>
+    <t>Arguments </t>
+  </si>
+  <si>
+    <r>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF2C2C2D"/>
+        <rFont val="PT Serif"/>
+      </rPr>
+      <t> - The value to look for in the first column of a table.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF2C2C2D"/>
+        <rFont val="PT Serif"/>
+      </rPr>
+      <t> - The table from which to retrieve a value.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>col_index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF2C2C2D"/>
+        <rFont val="PT Serif"/>
+      </rPr>
+      <t> - The column in the table from which to retrieve a value.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>range_lookup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF2C2C2D"/>
+        <rFont val="PT Serif"/>
+      </rPr>
+      <t> - [optional] TRUE = approximate match (default). FALSE = exact match.</t>
+    </r>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Input ID</t>
+  </si>
+  <si>
+    <t>Klara</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Roos</t>
+  </si>
+  <si>
+    <t>Alfa</t>
+  </si>
+  <si>
+    <t>john@dummyemail.com</t>
+  </si>
+  <si>
+    <t>klara@dummyemail.com</t>
+  </si>
+  <si>
+    <t>ray@dummyemail.com</t>
+  </si>
+  <si>
+    <t>kevin@dummyemail.com</t>
+  </si>
+  <si>
+    <t>roos@dummyemail.com</t>
+  </si>
+  <si>
+    <t>rihan@dummyemail.com</t>
+  </si>
+  <si>
+    <t>alfa@dummyemail.com</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Indra</t>
+  </si>
+  <si>
+    <t>Yoga</t>
+  </si>
+  <si>
+    <t>Ahmad</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Bandung</t>
+  </si>
+  <si>
+    <t>Tangerang</t>
+  </si>
+  <si>
+    <t>Denpasar</t>
+  </si>
+  <si>
+    <t>Kediri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -132,13 +287,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF2C2C2D"/>
+      <name val="PT Serif"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF999999"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF2C2C2D"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -150,14 +343,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -476,64 +678,64 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -542,7 +744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -558,20 +760,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C02F19-3936-2947-BA94-FF2E5C5492F6}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>100</v>
       </c>
@@ -583,12 +785,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>100</v>
       </c>
@@ -603,12 +805,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -622,7 +824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -637,7 +839,7 @@
         <v>Kaya</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -645,7 +847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -656,33 +858,266 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9A90FF-67A8-934D-AD90-6FA836FB45DC}">
+  <dimension ref="A3:O29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12">
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="str">
+        <f>VLOOKUP(D4,B8:F14,4,FALSE)</f>
+        <v>john@dummyemail.com</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="str">
+        <f>HLOOKUP(I3,I7:L9,3,FALSE)</f>
+        <v>Tangerang</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7">
+        <v>123</v>
+      </c>
+      <c r="J7">
+        <v>124</v>
+      </c>
+      <c r="K7">
+        <v>125</v>
+      </c>
+      <c r="L7">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="23">
+      <c r="A21" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="24">
+      <c r="A22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="N23" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="N24" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="23">
+      <c r="A25" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="24">
+      <c r="A26" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="24">
+      <c r="A27" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="24">
+      <c r="A28" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="24">
+      <c r="A29" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E10" r:id="rId1" xr:uid="{C1D4E681-5705-0341-AC67-37C0FA05B0A4}"/>
+    <hyperlink ref="E11" r:id="rId2" xr:uid="{128290AF-0ACF-D841-AC8A-B45A7F3C4B40}"/>
+    <hyperlink ref="E12" r:id="rId3" xr:uid="{85A98F72-025A-4D4D-8ACE-C939BA151A43}"/>
+    <hyperlink ref="E13" r:id="rId4" xr:uid="{E3E47397-39BF-BE45-9548-66AD46ED1461}"/>
+    <hyperlink ref="E14" r:id="rId5" xr:uid="{4CC7AE0A-FF4C-B245-8D02-F85B007DF864}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{7B230584-EB0A-0C47-88AA-F91CF37A04BE}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{2FB2B03A-61FD-AC41-807F-511C7749E5B6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>